--- a/agriculture 48.xlsx
+++ b/agriculture 48.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Downloads\ODL Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E2F70BD-EDC0-496E-BF9C-45EC6883A47F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F904FF1D-B2A2-452B-9BA7-DCFB331D4DDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2D4C4127-BCD9-4501-BA31-EE971553AE4F}"/>
   </bookViews>
@@ -279,7 +279,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -297,17 +297,6 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -348,18 +337,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -676,72 +663,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AC5BB40-7A11-4FBD-B5E6-B69B438FA527}">
-  <dimension ref="A1:AL68"/>
+  <dimension ref="A1:H68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A75" activeCellId="6" sqref="A1:XFD1 A70:XFD70 A71:XFD71 A72:XFD72 A73:XFD73 A74:XFD74 A75:XFD92"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="38" width="10.69921875" customWidth="1"/>
+    <col min="1" max="7" width="10.69921875" customWidth="1"/>
+    <col min="8" max="8" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38">
-      <c r="A1" s="6"/>
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="4"/>
+      <c r="B1" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
-      <c r="AA1" s="3"/>
-      <c r="AB1" s="3"/>
-      <c r="AC1" s="3"/>
-      <c r="AD1" s="3"/>
-      <c r="AE1" s="3"/>
-      <c r="AF1" s="3"/>
-      <c r="AG1" s="3"/>
-      <c r="AH1" s="3"/>
-      <c r="AI1" s="3"/>
-      <c r="AJ1" s="3"/>
-      <c r="AK1" s="3"/>
-      <c r="AL1" s="2"/>
-    </row>
-    <row r="2" spans="1:38">
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>66</v>
       </c>
@@ -753,7 +711,7 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:38">
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
         <v>65</v>
       </c>
@@ -765,7 +723,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:38">
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
         <v>64</v>
       </c>
@@ -777,7 +735,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:38">
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
         <v>63</v>
       </c>
@@ -789,7 +747,7 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:38">
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
         <v>62</v>
       </c>
@@ -801,7 +759,7 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:38">
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
         <v>61</v>
       </c>
@@ -813,7 +771,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:38">
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
         <v>60</v>
       </c>
@@ -825,7 +783,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:38">
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
         <v>59</v>
       </c>
@@ -837,7 +795,7 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:38">
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
         <v>58</v>
       </c>
@@ -857,7 +815,7 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:38">
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
         <v>57</v>
       </c>
@@ -877,7 +835,7 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:38">
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
         <v>56</v>
       </c>
@@ -895,7 +853,7 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:38">
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
         <v>55</v>
       </c>
@@ -913,7 +871,7 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:38">
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
         <v>54</v>
       </c>
@@ -931,7 +889,7 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:38">
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
         <v>53</v>
       </c>
@@ -949,7 +907,7 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:38">
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
         <v>52</v>
       </c>
